--- a/statistic/find_district_neighbourhoods/MAHALLELER YENIDEN ISIMLENDIRME TURKCE KARAKTER EKLEME.xlsx
+++ b/statistic/find_district_neighbourhoods/MAHALLELER YENIDEN ISIMLENDIRME TURKCE KARAKTER EKLEME.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803BEEA2-275F-4F8A-ABCA-020AAD57DBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96B8513-D0F8-48D0-B44C-D8D5DDDFA5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="16152" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -5315,7 +5315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5339,12 +5339,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5628,8 +5627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14531,7 +14530,7 @@
       <c r="C783" t="s">
         <v>1704</v>
       </c>
-      <c r="D783" s="12" t="s">
+      <c r="D783" s="10" t="s">
         <v>1707</v>
       </c>
     </row>
@@ -14539,7 +14538,7 @@
       <c r="C784" t="s">
         <v>1705</v>
       </c>
-      <c r="D784" s="12" t="s">
+      <c r="D784" s="10" t="s">
         <v>1708</v>
       </c>
     </row>
@@ -14547,7 +14546,7 @@
       <c r="C785" t="s">
         <v>1706</v>
       </c>
-      <c r="D785" s="12" t="s">
+      <c r="D785" s="10" t="s">
         <v>1709</v>
       </c>
     </row>
@@ -14931,7 +14930,7 @@
       <c r="C833" s="8" t="s">
         <v>1517</v>
       </c>
-      <c r="D833" s="12" t="s">
+      <c r="D833" s="10" t="s">
         <v>1711</v>
       </c>
     </row>
@@ -15979,7 +15978,7 @@
       <c r="C964" t="s">
         <v>1619</v>
       </c>
-      <c r="D964" s="12" t="s">
+      <c r="D964" s="10" t="s">
         <v>1619</v>
       </c>
     </row>
@@ -16131,7 +16130,7 @@
       <c r="C983" t="s">
         <v>1352</v>
       </c>
-      <c r="D983" s="12" t="s">
+      <c r="D983" s="10" t="s">
         <v>1717</v>
       </c>
     </row>
